--- a/piemers.xlsx
+++ b/piemers.xlsx
@@ -1,80 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A7BDAB3-DB60-48A1-99F2-AD39E4785586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3585" windowWidth="38640" windowHeight="21240" xr2:uid="{2546BDE1-754D-4BC0-9042-155691B5F91D}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-3585" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Oriģināls" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>d2m</t>
-  </si>
-  <si>
-    <t>d1  m</t>
-  </si>
-  <si>
-    <t>T1s</t>
-  </si>
-  <si>
-    <t>T2s</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,28 +47,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,142 +456,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061F6F7A-789F-48A0-8F32-A3D053182FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="B2:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="E3">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="K3">
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d1  m</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>T1s</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>d2m</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.1995</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4">
+    <row r="4">
+      <c r="B4" t="n">
         <v>0.217</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>1.07</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="1" t="n">
         <v>0.1885</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.93</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+    <row r="5">
+      <c r="B5" s="1" t="n">
         <v>0.17</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.98</v>
       </c>
-      <c r="H5" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K5">
+      <c r="H5" s="1" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.89</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E6">
+    <row r="6">
+      <c r="B6" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.91</v>
       </c>
-      <c r="H6" s="1">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="K6">
+      <c r="H6" s="1" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="E7">
+    <row r="7">
+      <c r="B7" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="E7" t="n">
         <v>1.03</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="n">
         <v>0.1195</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.94</v>
-      </c>
-      <c r="H8" s="1">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="K8">
+    <row r="8">
+      <c r="B8" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9">
-        <v>5.5E-2</v>
-      </c>
-      <c r="E9">
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.01</v>
       </c>
-      <c r="H9" s="1">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10">
+      <c r="H9" s="1" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="n">
         <v>0.02</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="H10" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K10">
+      <c r="H10" s="1" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 4</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 5</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 7</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 9</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Unnamed: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d1  m</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>T1s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>d2m</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T2s</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0.1995</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0.1885</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0.1195</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>